--- a/mbs-perturbation/mega/knn/mega-knn-results.xlsx
+++ b/mbs-perturbation/mega/knn/mega-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3398058252427185</v>
+        <v>0.2278481012658228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4635761589403974</v>
+        <v>0.2834645669291339</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6887320788530465</v>
+        <v>0.5341061827956989</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9310035842293907</v>
+        <v>0.6266801075268817</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.68</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4657534246575343</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6762387387387387</v>
+        <v>0.9545045045045044</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4468085106382979</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.3220338983050848</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6509951956074125</v>
+        <v>0.4594486387554335</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.04166666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5141843971631206</v>
+        <v>0.5452985586822239</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7728500539374326</v>
+        <v>0.6006780486010295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4856382978723404</v>
+        <v>0.3601063829787234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5112977271608845</v>
+        <v>0.3690320238739114</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6922307989183418</v>
+        <v>0.6240075984529485</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/knn/mega-knn-results.xlsx
+++ b/mbs-perturbation/mega/knn/mega-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2278481012658228</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.375</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2834645669291339</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5341061827956989</v>
+        <v>0.407073695535234</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.619047619047619</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6266801075268817</v>
+        <v>0.4435852608929532</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9545045045045044</v>
+        <v>0.9535571762763176</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2676056338028169</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4042553191489361</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3220338983050848</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4594486387554335</v>
+        <v>0.6395348837209303</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04166666666666667</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5452985586822239</v>
+        <v>0.8846841887986789</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6006780486010295</v>
+        <v>0.7177230210805529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3601063829787234</v>
+        <v>0.3878435517970402</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3690320238739114</v>
+        <v>0.4532079285816042</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6240075984529485</v>
+        <v>0.6656870410448228</v>
       </c>
     </row>
   </sheetData>
